--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51968B0-A82B-4FF2-845F-5E8D6B82D6AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41D6D4-0EE4-4609-B144-16E430542170}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,17 +11,23 @@
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
     <sheet name="Test 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -126,12 +132,6 @@
   </si>
   <si>
     <t>o3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>o4</t>
   </si>
 </sst>
 </file>
@@ -247,6 +247,25 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -270,25 +289,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -359,13 +359,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3B4F013B-6174-440D-901B-CCCB736FD0BD}" name="Table3" displayName="Table3" ref="O2:R5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3B4F013B-6174-440D-901B-CCCB736FD0BD}" name="Table3" displayName="Table3" ref="O2:R5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="O2:R5" xr:uid="{AFF03743-4729-4AE0-A300-5E7F4FF83E2C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AA94CBAC-BCC8-4523-BD98-7075C3946061}" name="Orden" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{084F57AE-7823-4D58-B39C-30B0BC0807D0}" name="Hours" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{352BEC57-A4F1-4C0F-B925-BA7DD498ED26}" name="Setup" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5DFBDDDE-47D4-4CD3-A109-D78758180307}" name="Piezas por hacer" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{AA94CBAC-BCC8-4523-BD98-7075C3946061}" name="Orden" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{084F57AE-7823-4D58-B39C-30B0BC0807D0}" name="Hours" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{352BEC57-A4F1-4C0F-B925-BA7DD498ED26}" name="Setup" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5DFBDDDE-47D4-4CD3-A109-D78758180307}" name="Piezas por hacer" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -401,13 +401,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF5248E3-CD80-4D61-9BF6-9EC928199AE6}" name="Table6" displayName="Table6" ref="N1:Q5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF5248E3-CD80-4D61-9BF6-9EC928199AE6}" name="Table6" displayName="Table6" ref="N1:Q5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="N1:Q5" xr:uid="{143F0776-70FE-4706-87F9-EDF727246CEA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D1EA108-50FC-4591-A45D-133B4361787B}" name="Orden" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7FDAFE89-7255-425A-B95A-3D355A2DF70B}" name="Hours" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{28F5E592-9C6F-4ACC-BFAE-2EAFEFA9E226}" name="Setup" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3A09B1F3-29EB-4616-B133-89F4BC4E1414}" name="Piezas por hacer" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4D1EA108-50FC-4591-A45D-133B4361787B}" name="Orden" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7FDAFE89-7255-425A-B95A-3D355A2DF70B}" name="Hours" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{28F5E592-9C6F-4ACC-BFAE-2EAFEFA9E226}" name="Setup" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3A09B1F3-29EB-4616-B133-89F4BC4E1414}" name="Piezas por hacer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -950,7 +950,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1031,9 @@
       <c r="E2">
         <v>1.2</v>
       </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
@@ -1066,6 +1069,9 @@
       <c r="E3">
         <v>0.4</v>
       </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
       <c r="K3" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1093,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -1096,10 +1102,13 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -1125,16 +1134,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="E5">
-        <v>1.9</v>
+        <v>0.4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
       </c>
       <c r="N5" s="9">
         <v>4</v>
@@ -1150,21 +1162,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>6.8</v>
-      </c>
-      <c r="E6">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>

--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41D6D4-0EE4-4609-B144-16E430542170}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0A07FB-05D5-451C-BAA5-E999E53C808E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,7 +950,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0A07FB-05D5-451C-BAA5-E999E53C808E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E8595-7414-4719-85FB-CC6CE01C701A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>o3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>o4</t>
+  </si>
+  <si>
+    <t>InitHours</t>
   </si>
 </sst>
 </file>
@@ -242,7 +251,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -359,23 +371,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3B4F013B-6174-440D-901B-CCCB736FD0BD}" name="Table3" displayName="Table3" ref="O2:R5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3B4F013B-6174-440D-901B-CCCB736FD0BD}" name="Table3" displayName="Table3" ref="O2:R5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="O2:R5" xr:uid="{AFF03743-4729-4AE0-A300-5E7F4FF83E2C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AA94CBAC-BCC8-4523-BD98-7075C3946061}" name="Orden" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{084F57AE-7823-4D58-B39C-30B0BC0807D0}" name="Hours" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{352BEC57-A4F1-4C0F-B925-BA7DD498ED26}" name="Setup" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5DFBDDDE-47D4-4CD3-A109-D78758180307}" name="Piezas por hacer" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{AA94CBAC-BCC8-4523-BD98-7075C3946061}" name="Orden" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{084F57AE-7823-4D58-B39C-30B0BC0807D0}" name="Hours" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{352BEC57-A4F1-4C0F-B925-BA7DD498ED26}" name="Setup" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{5DFBDDDE-47D4-4CD3-A109-D78758180307}" name="Piezas por hacer" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4216F788-1E85-4AC9-B5AF-522A88CF0B6D}" name="Table15" displayName="Table15" ref="A1:I8" totalsRowShown="0">
-  <autoFilter ref="A1:I8" xr:uid="{3F35E113-0A4D-4DE1-B5E7-0FE2BFE63328}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5DC47620-3A48-4C72-9787-5103CDC69EA1}" name="TURNO" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4216F788-1E85-4AC9-B5AF-522A88CF0B6D}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0">
+  <autoFilter ref="A1:J8" xr:uid="{3F35E113-0A4D-4DE1-B5E7-0FE2BFE63328}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5DC47620-3A48-4C72-9787-5103CDC69EA1}" name="TURNO" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{41E50911-A047-4125-B683-6974F2D2B869}" name="Part Number"/>
     <tableColumn id="3" xr3:uid="{5C5FB8BA-588B-4670-8643-9C3465FEAA25}" name="WO"/>
     <tableColumn id="4" xr3:uid="{B5AAFBFD-74CA-45D5-8D00-340C8782C456}" name="HRS"/>
@@ -384,6 +396,9 @@
     <tableColumn id="7" xr3:uid="{AD2E6E76-22FF-46C4-88F4-947A8321C642}" name="PZAS X HACER"/>
     <tableColumn id="8" xr3:uid="{14F63E1B-AA1B-4AA0-A287-C5E9A8A5388D}" name="COMENTARIOS"/>
     <tableColumn id="9" xr3:uid="{E025C60A-6FF7-406E-A595-3A8751810FEE}" name="DIA"/>
+    <tableColumn id="10" xr3:uid="{7AA8FAA9-7664-4923-B647-D67A973B13F8}" name="InitHours" dataDxfId="0">
+      <calculatedColumnFormula>4.3+1.2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -401,13 +416,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF5248E3-CD80-4D61-9BF6-9EC928199AE6}" name="Table6" displayName="Table6" ref="N1:Q5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF5248E3-CD80-4D61-9BF6-9EC928199AE6}" name="Table6" displayName="Table6" ref="N1:Q5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="N1:Q5" xr:uid="{143F0776-70FE-4706-87F9-EDF727246CEA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D1EA108-50FC-4591-A45D-133B4361787B}" name="Orden" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7FDAFE89-7255-425A-B95A-3D355A2DF70B}" name="Hours" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{28F5E592-9C6F-4ACC-BFAE-2EAFEFA9E226}" name="Setup" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3A09B1F3-29EB-4616-B133-89F4BC4E1414}" name="Piezas por hacer" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4D1EA108-50FC-4591-A45D-133B4361787B}" name="Orden" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7FDAFE89-7255-425A-B95A-3D355A2DF70B}" name="Hours" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{28F5E592-9C6F-4ACC-BFAE-2EAFEFA9E226}" name="Setup" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3A09B1F3-29EB-4616-B133-89F4BC4E1414}" name="Piezas por hacer" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -950,7 +965,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +978,7 @@
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" customWidth="1"/>
@@ -996,6 +1012,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
@@ -1034,6 +1053,10 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="0">4.3+1.2</f>
+        <v>5.5</v>
+      </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
@@ -1072,6 +1095,10 @@
       <c r="I3" t="s">
         <v>12</v>
       </c>
+      <c r="J3">
+        <f>5.5+2.2+0.4</f>
+        <v>8.1</v>
+      </c>
       <c r="K3" t="s">
         <v>17</v>
       </c>
@@ -1110,6 +1137,9 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
@@ -1148,6 +1178,9 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
+      <c r="J5">
+        <v>5.8</v>
+      </c>
       <c r="N5" s="9">
         <v>4</v>
       </c>
@@ -1162,13 +1195,73 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>4.8</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,8 @@
     <sheet name="runHours &gt; hInTurn (3)" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Progress Analysis 1)" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="TestEfficiencyWithProgress1" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="TestEfficiencyWithProgress2" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Test 2 - new algo" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="42">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -53,100 +55,103 @@
     <t xml:space="preserve">PZAS X HACER</t>
   </si>
   <si>
+    <t xml:space="preserve">Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piezas por hacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERCERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tercero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InitHours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMENTARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piezas por hacer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERCERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tercero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InitHours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progress</t>
   </si>
   <si>
     <t xml:space="preserve">Test</t>
@@ -162,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,6 +193,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,13 +209,19 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,7 +237,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -230,7 +249,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF5983B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFD428"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD428"/>
+        <bgColor rgb="FFFFDE59"/>
       </patternFill>
     </fill>
   </fills>
@@ -240,6 +283,13 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -258,13 +308,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -293,7 +336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,7 +345,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,7 +357,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,36 +369,76 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -404,20 +491,20 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -437,33 +524,32 @@
     <tableColumn id="5" name="SET-UP"/>
     <tableColumn id="6" name="PZAS/HR (META)"/>
     <tableColumn id="7" name="PZAS X HACER"/>
-    <tableColumn id="8" name="COMENTARIOS"/>
+    <tableColumn id="8" name="Progress"/>
     <tableColumn id="9" name="DIA"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table15" displayName="Table15" ref="A1:J8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:J8"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table15" displayName="Table15" ref="A1:I8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I8"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="TURNO"/>
     <tableColumn id="2" name="Part Number"/>
     <tableColumn id="3" name="WO"/>
     <tableColumn id="4" name="HRS"/>
     <tableColumn id="5" name="SET-UP"/>
     <tableColumn id="6" name="PZAS/HR (META)"/>
-    <tableColumn id="7" name="PZAS X HACER"/>
-    <tableColumn id="8" name="COMENTARIOS"/>
-    <tableColumn id="9" name="DIA"/>
-    <tableColumn id="10" name="InitHours"/>
+    <tableColumn id="7" name="Progreso"/>
+    <tableColumn id="8" name="DIA"/>
+    <tableColumn id="9" name="InitHours"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="L2:M5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="L2:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="K2:L5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="K2:L5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Turn"/>
     <tableColumn id="2" name="Hours"/>
@@ -472,8 +558,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table26" displayName="Table26" ref="K1:L4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="K1:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table26" displayName="Table26" ref="J1:K4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="J1:K4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Turn"/>
     <tableColumn id="2" name="Hours"/>
@@ -482,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table3" displayName="Table3" ref="O2:R5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="O2:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table3" displayName="Table3" ref="N2:Q5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="N2:Q5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Orden"/>
     <tableColumn id="2" name="Hours"/>
@@ -494,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="N1:Q5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="N1:Q5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M1:P5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="M1:P5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Orden"/>
     <tableColumn id="2" name="Hours"/>
@@ -510,262 +596,293 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R9"/>
+  <dimension ref="A2:Q9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="O3" s="5" t="n">
         <v>15.9</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="P3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="Q3" s="5" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>8.1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="N4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="O4" s="5" t="n">
         <v>6.7</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="P4" s="5" t="n">
         <v>1.1</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="Q4" s="5" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="P5" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="Q5" s="5" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>3.1</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -832,33 +949,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -867,10 +984,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4.3</v>
@@ -882,22 +999,22 @@
         <f aca="false">D2+E2</f>
         <v>5.5</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>4.3</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -906,10 +1023,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1.1</v>
@@ -917,42 +1034,42 @@
       <c r="E3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="2" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="10" t="n">
+      <c r="N3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="O3" s="10" t="n">
+      <c r="O3" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -988,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1028,33 +1145,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1063,10 +1180,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7.2</v>
@@ -1074,22 +1191,22 @@
       <c r="E2" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>12.3</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="13" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1098,10 +1215,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5.1</v>
@@ -1112,36 +1229,36 @@
       <c r="G3" s="0" t="n">
         <v>5.1</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="2" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1172,15 +1289,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,7 +1316,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1219,45 +1336,556 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="0" t="n">
+        <f aca="false">8.5 - (5.4 + 1.1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M2" s="15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N2" s="13" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M3" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N3" s="13" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M4" s="15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">5.4 + 0.4</f>
+        <v>5.8</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M5" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" s="13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
+        <f aca="false">5.4 + 0.4</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
+        <f aca="false">5.8 + 2.3</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="n">
+        <f aca="false">8.5 - SUM(D2:E2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="n">
+        <f aca="false">8.1 - 5.8</f>
+        <v>2.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4.3</v>
@@ -1265,41 +1893,45 @@
       <c r="E2" s="0" t="n">
         <v>1.2</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="G2" s="0" t="n">
+        <f aca="false">4.3 + 1.2</f>
+        <v>5.5</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <f aca="false">4.3+1.2</f>
         <v>5.5</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="10" t="n">
+      <c r="M2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="13" t="n">
         <v>4.3</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2.2</v>
@@ -1307,125 +1939,141 @@
       <c r="E3" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="G3" s="0" t="n">
+        <f aca="false"> 2.2 + 0.4</f>
+        <v>2.6</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <f aca="false">5.5+2.2+0.4</f>
         <v>8.1</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="10" t="n">
+      <c r="M3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="13" t="n">
         <v>2.2</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="O3" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q3" s="10" t="n">
+      <c r="P3" s="13" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O4" s="13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N4" s="10" t="n">
+      <c r="I5" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O5" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O4" s="10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="P4" s="10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q4" s="10" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="P5" s="13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="N5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" s="10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="P5" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="16" t="n">
         <v>2.3</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>37</v>
@@ -1434,24 +2082,24 @@
         <v>4.8</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>37</v>
@@ -1460,15 +2108,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1535,16 +2183,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1552,16 +2200,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1570,10 +2218,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>5</v>
@@ -1593,16 +2241,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1614,10 +2262,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -1627,17 +2275,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1667,7 +2315,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1706,16 +2354,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1723,16 +2371,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1741,10 +2389,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>6.4</v>
@@ -1758,16 +2406,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>9.2</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1776,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2.8</v>
@@ -1796,10 +2444,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -1809,17 +2457,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1856,7 +2504,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1895,16 +2543,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1912,16 +2560,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1930,10 +2578,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -1947,16 +2595,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>9.3</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1965,10 +2613,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -1982,10 +2630,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -1995,17 +2643,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2042,7 +2690,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2081,16 +2729,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2098,16 +2746,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2116,10 +2764,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4.3</v>
@@ -2137,16 +2785,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>4.3</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2158,10 +2806,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -2171,17 +2819,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2254,16 +2902,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2271,16 +2919,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2289,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>6.7</v>
@@ -2303,23 +2951,23 @@
       <c r="K2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="10" t="n">
+      <c r="M2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="13" t="n">
         <v>12.2</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>1.8</v>
       </c>
-      <c r="P2" s="10"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>5.5</v>
@@ -2336,10 +2984,10 @@
       <c r="K3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -2349,17 +2997,17 @@
       <c r="K4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2389,7 +3037,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2425,16 +3073,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2442,16 +3090,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2460,7 +3108,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5.1</v>
@@ -2474,16 +3122,16 @@
       <c r="K2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="10" t="n">
+      <c r="M2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="13" t="n">
         <v>21.2</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="13" t="n">
         <v>3.4</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="13" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2492,7 +3140,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>8.1</v>
@@ -2506,17 +3154,17 @@
       <c r="K3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5.5</v>
@@ -2530,17 +3178,17 @@
       <c r="K4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">21.2 - SUM(C2:C4)</f>
@@ -2549,10 +3197,10 @@
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2582,7 +3230,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2618,16 +3266,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2635,30 +3283,30 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>1.3</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="8" t="n">
         <v>7.2</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -2667,27 +3315,27 @@
       <c r="K2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="O2" s="13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="10" t="n">
-        <v>53</v>
-      </c>
-      <c r="O2" s="10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="P2" s="10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="8" t="n">
         <v>8.1</v>
       </c>
       <c r="J3" s="0" t="s">
@@ -2696,19 +3344,19 @@
       <c r="K3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>5.5</v>
       </c>
       <c r="J4" s="0" t="s">
@@ -2717,76 +3365,76 @@
       <c r="K4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>8.5</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="12" t="s">
         <v>40</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -336,7 +336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,10 +418,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1513,7 +1509,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1571,7 +1567,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1580,10 +1576,10 @@
       <c r="C2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="22" t="n">
+      <c r="D2" s="21" t="n">
         <v>4.3</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="21" t="n">
         <v>1.2</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -1609,7 +1605,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1618,10 +1614,10 @@
       <c r="C3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="21" t="n">
         <v>2.2</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="21" t="n">
         <v>0.4</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -1647,7 +1643,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1656,10 +1652,10 @@
       <c r="C4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="21" t="n">
         <v>0.4</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -1685,7 +1681,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -1694,10 +1690,10 @@
       <c r="C5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="21" t="n">
         <v>5.4</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -1718,7 +1714,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -1727,15 +1723,15 @@
       <c r="C6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="24" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -1744,15 +1740,15 @@
       <c r="C7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="21" t="n">
         <v>4.8</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="21" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -1761,10 +1757,10 @@
       <c r="C8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1940,7 +1936,7 @@
         <v>0.4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false"> 2.2 + 0.4</f>
+        <f aca="false">2.2 + 0.4</f>
         <v>2.6</v>
       </c>
       <c r="H3" s="0" t="s">

--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="43">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">COMENTARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEDNESDAY</t>
   </si>
   <si>
     <t xml:space="preserve">Test</t>
@@ -1508,8 +1511,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3225,8 +3228,8 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3305,6 +3308,9 @@
       <c r="D2" s="8" t="n">
         <v>7.2</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="0" t="s">
         <v>18</v>
       </c>
@@ -3333,6 +3339,9 @@
       </c>
       <c r="C3" s="8" t="n">
         <v>8.1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>20</v>
@@ -3355,6 +3364,9 @@
       <c r="C4" s="8" t="n">
         <v>5.5</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="J4" s="0" t="s">
         <v>22</v>
       </c>
@@ -3376,6 +3388,9 @@
       <c r="C5" s="8" t="n">
         <v>8.5</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -3391,6 +3406,9 @@
       <c r="C6" s="8" t="n">
         <v>8.1</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
@@ -3402,6 +3420,9 @@
       <c r="C7" s="8" t="n">
         <v>5.5</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
@@ -3413,6 +3434,9 @@
       <c r="C8" s="8" t="n">
         <v>8.5</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -3424,13 +3448,16 @@
       <c r="C9" s="8" t="n">
         <v>7.5</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -3229,7 +3229,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Analysis/sheet.xlsx
+++ b/Analysis/sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="TestEfficiencyWithProgress1" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="TestEfficiencyWithProgress2" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Test 2 - new algo" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Test3-new-above-setup" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="43">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -124,34 +125,34 @@
     <t xml:space="preserve">Progreso</t>
   </si>
   <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMENTARIOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">InitHours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMENTARIOS</t>
   </si>
   <si>
     <t xml:space="preserve">WEDNESDAY</t>
@@ -170,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,14 +211,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -240,7 +233,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFC9211E"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -339,7 +332,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,7 +365,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,31 +413,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,23 +425,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,7 +508,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -530,9 +535,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table15" displayName="Table15" ref="A1:I8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I8"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table15" displayName="Table15" ref="A1:H8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H8"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="TURNO"/>
     <tableColumn id="2" name="Part Number"/>
     <tableColumn id="3" name="WO"/>
@@ -541,7 +546,6 @@
     <tableColumn id="6" name="PZAS/HR (META)"/>
     <tableColumn id="7" name="Progreso"/>
     <tableColumn id="8" name="DIA"/>
-    <tableColumn id="9" name="InitHours"/>
   </tableColumns>
 </table>
 </file>
@@ -557,11 +561,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table26" displayName="Table26" ref="J1:K4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="J1:K4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Turn"/>
-    <tableColumn id="2" name="Hours"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table26" displayName="Table26" ref="I1:I4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="I1:I4"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name=""/>
   </tableColumns>
 </table>
 </file>
@@ -579,8 +582,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M1:P5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="M1:P5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="J1:M5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="J1:M5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Orden"/>
     <tableColumn id="2" name="Hours"/>
@@ -951,30 +954,30 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -983,10 +986,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4.3</v>
@@ -1004,16 +1007,16 @@
       <c r="L2" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>4.3</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1022,10 +1025,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1.1</v>
@@ -1039,16 +1042,16 @@
       <c r="L3" s="2" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="20" t="n">
         <v>1.1</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="20" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -1058,17 +1061,17 @@
       <c r="L4" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1147,30 +1150,30 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1179,10 +1182,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7.2</v>
@@ -1196,16 +1199,16 @@
       <c r="L2" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>12.3</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="20" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1214,10 +1217,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5.1</v>
@@ -1234,10 +1237,10 @@
       <c r="L3" s="2" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -1247,17 +1250,17 @@
       <c r="L4" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1338,30 +1341,30 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1387,16 +1390,16 @@
       <c r="L2" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="13" t="n">
+      <c r="N2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="20" t="n">
         <v>5.4</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>1.1</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="20" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1422,16 +1425,16 @@
       <c r="L3" s="2" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="13" t="n">
+      <c r="N3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="20" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="20" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1457,17 +1460,17 @@
       <c r="L4" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1512,7 +1515,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1546,26 +1549,26 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1574,15 +1577,15 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="21" t="n">
+      <c r="D2" s="23" t="n">
         <v>4.3</v>
       </c>
-      <c r="E2" s="21" t="n">
+      <c r="E2" s="23" t="n">
         <v>1.2</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -1594,16 +1597,16 @@
       <c r="I2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="15" t="n">
+      <c r="K2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="24" t="n">
         <v>4.3</v>
       </c>
-      <c r="M2" s="15" t="n">
+      <c r="M2" s="24" t="n">
         <v>1.2</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="20" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1612,15 +1615,15 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="23" t="n">
         <v>2.2</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="23" t="n">
         <v>0.4</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -1632,16 +1635,16 @@
       <c r="I3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="15" t="n">
+      <c r="K3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24" t="n">
         <v>2.2</v>
       </c>
-      <c r="M3" s="15" t="n">
+      <c r="M3" s="24" t="n">
         <v>0.4</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="20" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1650,15 +1653,15 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="21" t="n">
+      <c r="D4" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="23" t="n">
         <v>0.4</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -1670,16 +1673,16 @@
       <c r="I4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="15" t="n">
+      <c r="K4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="24" t="n">
         <v>5.4</v>
       </c>
-      <c r="M4" s="15" t="n">
+      <c r="M4" s="24" t="n">
         <v>0.8</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1688,31 +1691,31 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="23" t="n">
         <v>5.4</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="25" t="n">
         <v>0.4</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">5.4 + 0.4</f>
         <v>5.8</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="15" t="n">
+      <c r="K5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="24" t="n">
         <v>6.8</v>
       </c>
-      <c r="M5" s="15" t="n">
+      <c r="M5" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1721,15 +1724,15 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="27" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -1738,15 +1741,15 @@
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="21" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" s="23" t="n">
         <v>4.8</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="23" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1755,15 +1758,15 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="21" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="21" t="n">
+      <c r="E8" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1791,6 +1794,208 @@
         <v>2.3</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P2" s="20" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Q2" s="20" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">8.1 - E3</f>
+        <v>2.3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">14.3 - 8.5</f>
+        <v>5.8</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1807,10 +2012,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1822,302 +2027,271 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">4.3 + 1.2</f>
-        <v>5.5</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">4.3+1.2</f>
-        <v>5.5</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O2" s="13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" s="13" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">2.2 + 0.4</f>
-        <v>2.6</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">5.5+2.2+0.4</f>
-        <v>8.1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O3" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P3" s="13" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O5" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2185,13 +2359,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2199,16 +2373,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2217,10 +2391,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>5</v>
@@ -2240,16 +2414,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2261,10 +2435,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -2274,17 +2448,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2356,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2370,16 +2544,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2388,10 +2562,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>6.4</v>
@@ -2405,16 +2579,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>9.2</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2423,10 +2597,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2.8</v>
@@ -2443,10 +2617,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -2456,17 +2630,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2545,13 +2719,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2559,16 +2733,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2577,10 +2751,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -2594,16 +2768,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>9.3</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2612,10 +2786,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -2629,10 +2803,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -2642,17 +2816,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2689,7 +2863,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2731,13 +2905,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2745,16 +2919,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2763,10 +2937,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4.3</v>
@@ -2784,16 +2958,16 @@
       <c r="L2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>4.3</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2805,10 +2979,10 @@
       <c r="L3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -2818,17 +2992,17 @@
       <c r="L4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -2904,13 +3078,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2918,16 +3092,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2936,7 +3110,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>6.7</v>
@@ -2950,23 +3124,23 @@
       <c r="K2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="13" t="n">
+      <c r="M2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="20" t="n">
         <v>12.2</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>1.8</v>
       </c>
-      <c r="P2" s="13"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>5.5</v>
@@ -2983,10 +3157,10 @@
       <c r="K3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -2996,17 +3170,17 @@
       <c r="K4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -3075,13 +3249,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -3089,16 +3263,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3107,7 +3281,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5.1</v>
@@ -3121,16 +3295,16 @@
       <c r="K2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="13" t="n">
+      <c r="M2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="20" t="n">
         <v>21.2</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>3.4</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3139,7 +3313,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>8.1</v>
@@ -3153,17 +3327,17 @@
       <c r="K3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5.5</v>
@@ -3177,17 +3351,17 @@
       <c r="K4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">21.2 - SUM(C2:C4)</f>
@@ -3196,10 +3370,10 @@
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -3228,7 +3402,7 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3268,13 +3442,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -3282,30 +3456,30 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="21" t="n">
         <v>1.3</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="21" t="n">
         <v>7.2</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -3317,27 +3491,27 @@
       <c r="K2" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="13" t="n">
+      <c r="M2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="20" t="n">
         <v>53</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="20" t="n">
         <v>7.2</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="20" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" s="21" t="n">
         <v>8.1</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -3349,19 +3523,19 @@
       <c r="K3" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" s="21" t="n">
         <v>5.5</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -3373,37 +3547,37 @@
       <c r="K4" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="21" t="n">
         <v>8.5</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" s="21" t="n">
         <v>8.1</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -3411,13 +3585,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="21" t="n">
         <v>5.5</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -3425,13 +3599,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="21" t="n">
         <v>8.5</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -3439,13 +3613,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="21" t="n">
         <v>7.5</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -3456,7 +3630,7 @@
       <c r="D16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="22" t="s">
         <v>42</v>
       </c>
     </row>
